--- a/data/mall测试用例.xlsx
+++ b/data/mall测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7600"/>
+    <workbookView windowWidth="19190" windowHeight="7600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="172">
   <si>
     <t>用例编号</t>
   </si>
@@ -690,6 +690,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>HTTP</t>
     </r>
     <r>
@@ -820,6 +826,1322 @@
       </rPr>
       <t>处理（注：body保持表单格式，但Content-Type为JSON）</t>
     </r>
+  </si>
+  <si>
+    <t>CART_01</t>
+  </si>
+  <si>
+    <t>加入购物车</t>
+  </si>
+  <si>
+    <t>正常加入购物车（参数完整正确）</t>
+  </si>
+  <si>
+    <t>{{portal.mall}}/cart/add</t>
+  </si>
+  <si>
+    <r>
+      <t>{"price":5499,"productId":29,"productName":"Apple iPhone 8 Plus","productSkuCode":"201808270029001","productSkuId":106,"productSubTitle":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【限时限量抢购】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>...","quantity":1,"sp1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","sp2":"32G","sp3":null}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（成功），状态码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；购物车数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，商品信息与输入一致。</t>
+    </r>
+  </si>
+  <si>
+    <t>用户已登录，参数均有效</t>
+  </si>
+  <si>
+    <t>CART_02</t>
+  </si>
+  <si>
+    <t>加入购物车-缺失必填参数（productId为空）</t>
+  </si>
+  <si>
+    <r>
+      <t>{"price":5499,"productId":"","productName":"Apple iPhone 8 Plus","productSkuCode":"201808270029001","productSkuId":106,"productSubTitle":"...","quantity":1,"sp1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","sp2":"32G","sp3":null}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（参数错误），提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“productId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，状态码5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>必选参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_03</t>
+  </si>
+  <si>
+    <t>加入购物车-无效productSkuId（不存在）</t>
+  </si>
+  <si>
+    <t>{"price":5499,"productId":29,"productName":"Apple iPhone 8 Plus","productSkuCode":"201808270029001","productSkuId":9999（不存在）,"productSubTitle":"...","quantity":1,"sp1":"金色","sp2":"32G","sp3":null}</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（商品不存在），提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SKU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，状态码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>productSkuId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为无效值</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_04</t>
+  </si>
+  <si>
+    <t>加入购物车-Quantity为0</t>
+  </si>
+  <si>
+    <t>{"price":5499,"productId":29,"productName":"Apple iPhone 8 Plus","productSkuCode":"201808270029001","productSkuId":106,"productSubTitle":"...","quantity":0,"sp1":"金色","sp2":"32G","sp3":null}</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（数量错误），提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品数量不能为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，状态码2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为0</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_05</t>
+  </si>
+  <si>
+    <r>
+      <t>加入购物车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未登录状态</t>
+    </r>
+  </si>
+  <si>
+    <t>{"price":5499,"productId":29,"productName":"Apple iPhone 8 Plus","productSkuCode":"201808270029001","productSkuId":106,"productSubTitle":"...","quantity":1,"sp1":"金色","sp2":"32G","sp3":null}</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（未授权），提示“未登录，请先登录”，状态码401。</t>
+    </r>
+  </si>
+  <si>
+    <t>未携带登录凭证（如Token）</t>
+  </si>
+  <si>
+    <t>CART_06</t>
+  </si>
+  <si>
+    <t>获取购物车列表</t>
+  </si>
+  <si>
+    <t>正常获取购物车列表（已登录且有商品）</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{{portal.mall}}/cart/list</t>
+  </si>
+  <si>
+    <r>
+      <t>返回购物车商品列表（包含至少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>件商品），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，商品信息与加入时一致。</t>
+    </r>
+  </si>
+  <si>
+    <t>用户已登录，购物车有商品</t>
+  </si>
+  <si>
+    <t>CART_07</t>
+  </si>
+  <si>
+    <t>获取购物车列表-未登录状态</t>
+  </si>
+  <si>
+    <t>未携带登录凭证</t>
+  </si>
+  <si>
+    <t>CART_08</t>
+  </si>
+  <si>
+    <t>获取购物车列表-购物车为空</t>
+  </si>
+  <si>
+    <r>
+      <t>返回空列表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>data:[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），状态码200，提示“购物车为空”。</t>
+    </r>
+  </si>
+  <si>
+    <t>用户已登录，购物车无商品</t>
+  </si>
+  <si>
+    <t>CART_09</t>
+  </si>
+  <si>
+    <r>
+      <t>获取购物车列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>携带无效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Token</t>
+    </r>
+  </si>
+  <si>
+    <t>Authorization: Bearer invalid_token</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（无效授权），提示“无效的Token”，状态码401。</t>
+    </r>
+  </si>
+  <si>
+    <t>携带无效登录凭证</t>
+  </si>
+  <si>
+    <t>CART_10</t>
+  </si>
+  <si>
+    <t>获取购物车列表-多商品场景</t>
+  </si>
+  <si>
+    <t>返回购物车商品列表（包含2件及以上商品），每个商品信息正确，数量与加入时一致。</t>
+  </si>
+  <si>
+    <t>用户已登录，购物车有多个商品</t>
+  </si>
+  <si>
+    <t>CART_11</t>
+  </si>
+  <si>
+    <t>修改购物车中商品数量</t>
+  </si>
+  <si>
+    <t>正常修改商品数量（id存在且quantity有效）</t>
+  </si>
+  <si>
+    <t>{{portal.mall}}/cart/update/quantity</t>
+  </si>
+  <si>
+    <t>id=29&amp;quantity=2</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（成功），提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，状态码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；再次获取列表，该商品数量变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为正整数</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_12</t>
+  </si>
+  <si>
+    <r>
+      <t>修改商品数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不存在</t>
+    </r>
+  </si>
+  <si>
+    <t>id=99991231&amp;quantity=2</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（不存在），提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购物车商品不存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，状态码5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为无效值</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_13</t>
+  </si>
+  <si>
+    <t>修改商品数量-quantity为0（删除商品）</t>
+  </si>
+  <si>
+    <t>id=29&amp;quantity=0</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（成功），提示“商品已从购物车删除”，状态码200；列表中无该商品。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>quantity=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发删除逻辑</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_14</t>
+  </si>
+  <si>
+    <t>修改商品数量-quantity为负数</t>
+  </si>
+  <si>
+    <t>id=29&amp;quantity=-1</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（数量错误），提示“商品数量不能为负数”，状态码400。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为负数</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_15</t>
+  </si>
+  <si>
+    <t>修改商品数量-未登录状态</t>
+  </si>
+  <si>
+    <t>CART_16</t>
+  </si>
+  <si>
+    <t>清空购物车</t>
+  </si>
+  <si>
+    <t>正常清空购物车（已登录且有商品）</t>
+  </si>
+  <si>
+    <t>{{portal.mall}}/cart/clear</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（成功），提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购物车已清空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，状态码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；列表变为空。</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_17</t>
+  </si>
+  <si>
+    <t>清空购物车-未登录状态</t>
+  </si>
+  <si>
+    <t>CART_18</t>
+  </si>
+  <si>
+    <t>清空购物车-购物车已为空</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code:0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（成功），提示“购物车已为空”，状态码200。</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_19</t>
+  </si>
+  <si>
+    <t>清空购物车-多次连续清空</t>
+  </si>
+  <si>
+    <t>第一次清空返回成功（列表为空），后续清空返回“购物车已为空”，状态码均为200。</t>
+  </si>
+  <si>
+    <t>连续调用清空接口</t>
+  </si>
+  <si>
+    <t>CART_20</t>
+  </si>
+  <si>
+    <r>
+      <t>清空购物车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>携带无效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Token</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_21</t>
+  </si>
+  <si>
+    <t>获取购物车列表（含促销）</t>
+  </si>
+  <si>
+    <t>正常获取购物车列表（含有效促销信息）</t>
+  </si>
+  <si>
+    <t>{{portal.mall}}/cart/list/promotion</t>
+  </si>
+  <si>
+    <t>返回购物车商品列表（含至少1件有促销的商品），促销信息（如折扣、满减）显示正确，状态码200。</t>
+  </si>
+  <si>
+    <t>商品有有效促销信息</t>
+  </si>
+  <si>
+    <t>CART_22</t>
+  </si>
+  <si>
+    <t>获取购物车列表（含促销）-未登录状态</t>
+  </si>
+  <si>
+    <t>CART_23</t>
+  </si>
+  <si>
+    <t>获取购物车列表（含促销）-购物车为空</t>
+  </si>
+  <si>
+    <t>CART_24</t>
+  </si>
+  <si>
+    <t>获取购物车列表（含促销）-促销信息过期</t>
+  </si>
+  <si>
+    <r>
+      <t>返回商品列表，促销信息字段为空（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>promotionInfo: null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），状态码200。</t>
+    </r>
+  </si>
+  <si>
+    <t>商品促销信息已过期（如促销时间结束）</t>
+  </si>
+  <si>
+    <t>CART_25</t>
+  </si>
+  <si>
+    <t>获取购物车列表（含促销）-商品无促销信息</t>
+  </si>
+  <si>
+    <t>返回商品列表，促销信息字段为空，状态码200。</t>
+  </si>
+  <si>
+    <t>商品未设置促销信</t>
   </si>
 </sst>
 </file>
@@ -832,7 +2154,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +2167,24 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.2"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1003,8 +2343,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,6 +2360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,159 +2697,171 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,13 +3180,13 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="4" max="4" width="28.8272727272727" customWidth="1"/>
     <col min="6" max="6" width="19.7363636363636" customWidth="1"/>
     <col min="7" max="7" width="25.1818181818182" customWidth="1"/>
@@ -1830,335 +3194,335 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" ht="82.5" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" ht="82.5" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="82.5" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" ht="66" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" ht="82.5" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" ht="82.5" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" ht="99" spans="1:10">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" ht="297" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" ht="82.5" spans="1:10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" ht="159" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2172,14 +3536,739 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="20.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="15.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="27.6545454545455" customWidth="1"/>
+    <col min="7" max="7" width="30.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="18.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="155" customHeight="1" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" ht="122.5" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" ht="188" customHeight="1" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="122.5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" ht="122.5" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" ht="82.5" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" ht="65" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="65" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" ht="87.5" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" ht="77.5" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" ht="100" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" ht="65" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" ht="80" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" ht="65" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" ht="65" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" ht="90" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" ht="65" spans="1:10">
+      <c r="A18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" ht="67.5" spans="1:10">
+      <c r="A19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" ht="82.5" spans="1:10">
+      <c r="A20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" ht="67.5" spans="1:10">
+      <c r="A21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" ht="95" spans="1:10">
+      <c r="A22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" ht="92.5" spans="1:10">
+      <c r="A23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" ht="65" spans="1:10">
+      <c r="A24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" ht="90" spans="1:10">
+      <c r="A25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" ht="60" spans="1:10">
+      <c r="A26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
